--- a/Civilworks cost/RADP Preparations/Sunamgonj/Final/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Sunamgonj/Final/Projecttion_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -794,11 +794,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -811,9 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,6 +854,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5079,17 +5116,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.77734375" customWidth="1"/>
     <col min="9" max="9" width="20.21875" customWidth="1"/>
     <col min="10" max="10" width="15.21875" customWidth="1"/>
@@ -5098,2506 +5135,2551 @@
     <col min="13" max="13" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" s="23" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="20">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="20">
         <v>33.848999999999997</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="20">
         <v>867.33</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20">
         <v>503.0514</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="20">
         <v>867.33</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="20">
         <v>364.27859999999998</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="20">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="23" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="4">
+        <v>57</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="20">
+        <v>11</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="G3" s="20">
+        <v>246.39</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>246.39</v>
+      </c>
+      <c r="L3" s="20">
+        <v>246.39</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="23" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="20">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3">
-        <v>1.48</v>
-      </c>
-      <c r="G3">
-        <v>18.828721420000001</v>
-      </c>
-      <c r="H3">
-        <v>0.84</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>15.8161259928</v>
-      </c>
-      <c r="K3">
-        <v>18.828721420000001</v>
-      </c>
-      <c r="L3">
-        <v>3.0125954272000008</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="D4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="20">
+        <v>36.575000000000003</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1193.75</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="20">
+        <v>1</v>
+      </c>
+      <c r="J4" s="20">
+        <v>955</v>
+      </c>
+      <c r="K4" s="20">
+        <v>1193.75</v>
+      </c>
+      <c r="L4" s="20">
+        <v>238.75</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="23" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="20">
+        <v>5</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <v>225.81</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>1</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>225.81</v>
+      </c>
+      <c r="L5" s="20">
+        <v>225.81</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="23" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>26</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="20">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20">
+        <v>301.6651</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="20">
+        <v>1</v>
+      </c>
+      <c r="J6" s="20">
+        <v>120.66604</v>
+      </c>
+      <c r="K6" s="20">
+        <v>301.6651</v>
+      </c>
+      <c r="L6" s="20">
+        <v>180.99905999999999</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="23" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="20">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20">
+        <v>267.87028529999998</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="J7" s="20">
+        <v>107.14811412</v>
+      </c>
+      <c r="K7" s="20">
+        <v>267.87028529999998</v>
+      </c>
+      <c r="L7" s="20">
+        <v>160.72217118</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="23" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>58</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="20">
+        <v>11</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G8" s="20">
+        <v>152.31</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>152.31</v>
+      </c>
+      <c r="L8" s="20">
+        <v>152.31</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4">
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="G4">
-        <v>32.028825480000002</v>
-      </c>
-      <c r="H4">
-        <v>0.84</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>26.9042134032</v>
-      </c>
-      <c r="K4">
-        <v>32.028825480000002</v>
-      </c>
-      <c r="L4">
-        <v>5.1246120768000019</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    </row>
+    <row r="9" spans="1:14" s="23" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>23</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="20">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5">
-        <v>1.56</v>
-      </c>
-      <c r="G5">
-        <v>41.048906299999999</v>
-      </c>
-      <c r="H5">
-        <v>0.84</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>34.481081291999999</v>
-      </c>
-      <c r="K5">
-        <v>41.048906299999999</v>
-      </c>
-      <c r="L5">
-        <v>6.5678250079999998</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D9" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>283.3851262</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20">
+        <v>141.6925631</v>
+      </c>
+      <c r="K9" s="20">
+        <v>283.3851262</v>
+      </c>
+      <c r="L9" s="20">
+        <v>141.6925631</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="23" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>59</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="20">
+        <v>11</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F6">
-        <v>3.2</v>
-      </c>
-      <c r="G6">
-        <v>176.47453530000001</v>
-      </c>
-      <c r="H6">
-        <v>0.84</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>148.23860965200001</v>
-      </c>
-      <c r="K6">
-        <v>176.47453530000001</v>
-      </c>
-      <c r="L6">
-        <v>28.235925648000009</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="F10" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>138.18</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>138.18</v>
+      </c>
+      <c r="L10" s="20">
+        <v>138.18</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>46</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16">
+        <v>131.38</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>131.38</v>
+      </c>
+      <c r="L11" s="16">
+        <v>131.38</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>47</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="16">
+        <v>15</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="16">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16">
+        <v>347.64</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="J12" s="16">
+        <v>59.098799999999997</v>
+      </c>
+      <c r="K12" s="16">
+        <v>187.72559999999999</v>
+      </c>
+      <c r="L12" s="16">
+        <v>128.6268</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>308.00184510000003</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16">
+        <v>184.80110705999999</v>
+      </c>
+      <c r="K13" s="16">
+        <v>308.00184510000003</v>
+      </c>
+      <c r="L13" s="16">
+        <v>123.20073804</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>45.09</v>
-      </c>
-      <c r="H7">
-        <v>0.54</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>24.348600000000001</v>
-      </c>
-      <c r="K7">
-        <v>45.09</v>
-      </c>
-      <c r="L7">
-        <v>20.741399999999999</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>279.35073799999998</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="J14" s="16">
+        <v>75.424699259999997</v>
+      </c>
+      <c r="K14" s="16">
+        <v>187.16499446</v>
+      </c>
+      <c r="L14" s="16">
+        <v>111.74029520000001</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>45.09</v>
-      </c>
-      <c r="H8">
-        <v>0.54</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>24.348600000000001</v>
-      </c>
-      <c r="K8">
-        <v>45.09</v>
-      </c>
-      <c r="L8">
-        <v>20.741399999999999</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>183.3461227</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>110.00767362000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>183.3461227</v>
+      </c>
+      <c r="L15" s="4">
+        <v>73.338449080000004</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>45.09</v>
-      </c>
-      <c r="H9">
-        <v>0.54</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>24.348600000000001</v>
-      </c>
-      <c r="K9">
-        <v>45.09</v>
-      </c>
-      <c r="L9">
-        <v>20.741399999999999</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>45.09</v>
-      </c>
-      <c r="H10">
-        <v>0.54</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>24.348600000000001</v>
-      </c>
-      <c r="K10">
-        <v>45.09</v>
-      </c>
-      <c r="L10">
-        <v>20.741399999999999</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>45.09</v>
-      </c>
-      <c r="H11">
-        <v>0.54</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>24.348600000000001</v>
-      </c>
-      <c r="K11">
-        <v>45.09</v>
-      </c>
-      <c r="L11">
-        <v>20.741399999999999</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>45.09</v>
-      </c>
-      <c r="H12">
-        <v>0.54</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>24.348600000000001</v>
-      </c>
-      <c r="K12">
-        <v>45.09</v>
-      </c>
-      <c r="L12">
-        <v>20.741399999999999</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>45.09</v>
-      </c>
-      <c r="H13">
-        <v>0.54</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>24.348600000000001</v>
-      </c>
-      <c r="K13">
-        <v>45.09</v>
-      </c>
-      <c r="L13">
-        <v>20.741399999999999</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>10.66</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>10.66</v>
-      </c>
-      <c r="L14">
-        <v>10.66</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="4">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15">
-        <v>36.575000000000003</v>
-      </c>
-      <c r="G15">
-        <v>1193.75</v>
-      </c>
-      <c r="H15">
-        <v>0.8</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>955</v>
-      </c>
-      <c r="K15">
-        <v>1193.75</v>
-      </c>
-      <c r="L15">
-        <v>238.75</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>183.3461227</v>
-      </c>
-      <c r="H16">
-        <v>0.6</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>110.00767362000001</v>
-      </c>
-      <c r="K16">
-        <v>183.3461227</v>
-      </c>
-      <c r="L16">
-        <v>73.338449080000004</v>
-      </c>
-      <c r="M16">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>182.28597360000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J16" s="4">
+        <v>49.217212871999998</v>
+      </c>
+      <c r="K16" s="4">
+        <v>122.131602312</v>
+      </c>
+      <c r="L16" s="4">
+        <v>72.914389440000008</v>
+      </c>
+      <c r="M16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="4">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>308.00184510000003</v>
-      </c>
-      <c r="H17">
-        <v>0.6</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>184.80110705999999</v>
-      </c>
-      <c r="K17">
-        <v>308.00184510000003</v>
-      </c>
-      <c r="L17">
-        <v>123.20073804</v>
-      </c>
-      <c r="M17">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>182.28597360000001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J17" s="4">
+        <v>49.217212871999998</v>
+      </c>
+      <c r="K17" s="4">
+        <v>122.131602312</v>
+      </c>
+      <c r="L17" s="4">
+        <v>72.914389440000008</v>
+      </c>
+      <c r="M17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
         <v>182.28597360000001</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>0.27</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>0.67</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>49.217212871999998</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>122.131602312</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>72.914389440000008</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
         <v>182.28597360000001</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>0.27</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.67</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>49.217212871999998</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>122.131602312</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>72.914389440000008</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
         <v>182.28597360000001</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>0.27</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>0.67</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>49.217212871999998</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>122.131602312</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>72.914389440000008</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>130</v>
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C21" s="4">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>182.28597360000001</v>
-      </c>
-      <c r="H21">
-        <v>0.27</v>
-      </c>
-      <c r="I21">
-        <v>0.67</v>
-      </c>
-      <c r="J21">
-        <v>49.217212871999998</v>
-      </c>
-      <c r="K21">
-        <v>122.131602312</v>
-      </c>
-      <c r="L21">
-        <v>72.914389440000008</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45.13</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>45.13</v>
+      </c>
+      <c r="L21" s="4">
+        <v>45.13</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>130</v>
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>182.28597360000001</v>
-      </c>
-      <c r="H22">
-        <v>0.27</v>
-      </c>
-      <c r="I22">
-        <v>0.67</v>
-      </c>
-      <c r="J22">
-        <v>49.217212871999998</v>
-      </c>
-      <c r="K22">
-        <v>122.131602312</v>
-      </c>
-      <c r="L22">
-        <v>72.914389440000008</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>191.39009999999999</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>153.11207999999999</v>
+      </c>
+      <c r="K22" s="4">
+        <v>191.39009999999999</v>
+      </c>
+      <c r="L22" s="4">
+        <v>38.278019999999998</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>130</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>279.35073799999998</v>
-      </c>
-      <c r="H23">
-        <v>0.27</v>
-      </c>
-      <c r="I23">
-        <v>0.67</v>
-      </c>
-      <c r="J23">
-        <v>75.424699259999997</v>
-      </c>
-      <c r="K23">
-        <v>187.16499446</v>
-      </c>
-      <c r="L23">
-        <v>111.74029520000001</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>187.8663</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>150.29303999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>187.8663</v>
+      </c>
+      <c r="L23" s="4">
+        <v>37.573259999999998</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C24" s="4">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>34.94</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>1564.32</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>0.98</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
         <v>1533.0336</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>1564.32</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>31.286399999999961</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C25" s="4">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>283.3851262</v>
-      </c>
-      <c r="H25">
-        <v>0.5</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>141.6925631</v>
-      </c>
-      <c r="K25">
-        <v>283.3851262</v>
-      </c>
-      <c r="L25">
-        <v>141.6925631</v>
-      </c>
-      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>176.47453530000001</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>148.23860965200001</v>
+      </c>
+      <c r="K25" s="4">
+        <v>176.47453530000001</v>
+      </c>
+      <c r="L25" s="4">
+        <v>28.235925648000009</v>
+      </c>
+      <c r="M25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="4">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>267.87028529999998</v>
-      </c>
-      <c r="H26">
-        <v>0.4</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>107.14811412</v>
-      </c>
-      <c r="K26">
-        <v>267.87028529999998</v>
-      </c>
-      <c r="L26">
-        <v>160.72217118</v>
-      </c>
-      <c r="M26">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>24.348600000000001</v>
+      </c>
+      <c r="K26" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="L26" s="4">
+        <v>20.741399999999999</v>
+      </c>
+      <c r="M26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>132</v>
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C27" s="4">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>225.81</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>225.81</v>
-      </c>
-      <c r="L27">
-        <v>225.81</v>
-      </c>
-      <c r="M27">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>24.348600000000001</v>
+      </c>
+      <c r="K27" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="L27" s="4">
+        <v>20.741399999999999</v>
+      </c>
+      <c r="M27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>132</v>
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C28" s="4">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>301.6651</v>
-      </c>
-      <c r="H28">
-        <v>0.4</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>120.66604</v>
-      </c>
-      <c r="K28">
-        <v>301.6651</v>
-      </c>
-      <c r="L28">
-        <v>180.99905999999999</v>
-      </c>
-      <c r="M28">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>24.348600000000001</v>
+      </c>
+      <c r="K28" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="L28" s="4">
+        <v>20.741399999999999</v>
+      </c>
+      <c r="M28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C29" s="4">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>187.8663</v>
-      </c>
-      <c r="H29">
-        <v>0.8</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>150.29303999999999</v>
-      </c>
-      <c r="K29">
-        <v>187.8663</v>
-      </c>
-      <c r="L29">
-        <v>37.573259999999998</v>
-      </c>
-      <c r="M29">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>24.348600000000001</v>
+      </c>
+      <c r="K29" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="L29" s="4">
+        <v>20.741399999999999</v>
+      </c>
+      <c r="M29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>132</v>
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C30" s="4">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>191.39009999999999</v>
-      </c>
-      <c r="H30">
-        <v>0.8</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>153.11207999999999</v>
-      </c>
-      <c r="K30">
-        <v>191.39009999999999</v>
-      </c>
-      <c r="L30">
-        <v>38.278019999999998</v>
-      </c>
-      <c r="M30">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>24.348600000000001</v>
+      </c>
+      <c r="K30" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="L30" s="4">
+        <v>20.741399999999999</v>
+      </c>
+      <c r="M30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C31" s="4">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31">
-        <v>7.18</v>
-      </c>
-      <c r="G31">
-        <v>36.088865039381247</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>36.088865039381247</v>
-      </c>
-      <c r="K31">
-        <v>36.088865039381247</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>24.348600000000001</v>
+      </c>
+      <c r="K31" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="L31" s="4">
+        <v>20.741399999999999</v>
+      </c>
+      <c r="M31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C32" s="4">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32">
-        <v>3.8279999999999998</v>
-      </c>
-      <c r="G32">
-        <v>54.376977932306822</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>54.376977932306822</v>
-      </c>
-      <c r="K32">
-        <v>54.376977932306822</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>24.348600000000001</v>
+      </c>
+      <c r="K32" s="4">
+        <v>45.09</v>
+      </c>
+      <c r="L32" s="4">
+        <v>20.741399999999999</v>
+      </c>
+      <c r="M32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>133</v>
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C33" s="4">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="G33">
-        <v>70.108245228127444</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>70.108245228127444</v>
-      </c>
-      <c r="K33">
-        <v>70.108245228127444</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="4">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4">
+        <v>10.66</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>10.66</v>
+      </c>
+      <c r="L33" s="4">
+        <v>10.66</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C34" s="4">
         <v>7</v>
       </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F34">
-        <v>13.8</v>
-      </c>
-      <c r="G34">
-        <v>565.05490314340454</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>565.05490314340454</v>
-      </c>
-      <c r="K34">
-        <v>565.05490314340454</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F34" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="G34" s="4">
+        <v>41.048906299999999</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>34.481081291999999</v>
+      </c>
+      <c r="K34" s="4">
+        <v>41.048906299999999</v>
+      </c>
+      <c r="L34" s="4">
+        <v>6.5678250079999998</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C35" s="4">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F35">
-        <v>2.9129999999999998</v>
-      </c>
-      <c r="G35">
-        <v>36.350741502873767</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>36.350741502873767</v>
-      </c>
-      <c r="K35">
-        <v>36.350741502873767</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F35" s="4">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="G35" s="4">
+        <v>32.028825480000002</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>26.9042134032</v>
+      </c>
+      <c r="K35" s="4">
+        <v>32.028825480000002</v>
+      </c>
+      <c r="L35" s="4">
+        <v>5.1246120768000019</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C36" s="4">
         <v>7</v>
       </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F36">
-        <v>3.4140000000000001</v>
-      </c>
-      <c r="G36">
-        <v>62.730761725679422</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>62.730761725679422</v>
-      </c>
-      <c r="K36">
-        <v>62.730761725679422</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="F36" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="G36" s="4">
+        <v>18.828721420000001</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>15.8161259928</v>
+      </c>
+      <c r="K36" s="4">
+        <v>18.828721420000001</v>
+      </c>
+      <c r="L36" s="4">
+        <v>3.0125954272000008</v>
+      </c>
+      <c r="M36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C37" s="4">
         <v>7</v>
       </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F37">
-        <v>6.8319999999999999</v>
-      </c>
-      <c r="G37">
-        <v>176.76293195203289</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>176.76293195203289</v>
-      </c>
-      <c r="K37">
-        <v>176.76293195203289</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="F37" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="G37" s="4">
+        <v>36.088865039381247</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>36.088865039381247</v>
+      </c>
+      <c r="K37" s="4">
+        <v>36.088865039381247</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="4">
         <v>7</v>
       </c>
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F38">
-        <v>2.8929999999999998</v>
-      </c>
-      <c r="G38">
-        <v>45.673286383310867</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>45.673286383310867</v>
-      </c>
-      <c r="K38">
-        <v>45.673286383310867</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="F38" s="4">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="G38" s="4">
+        <v>54.376977932306822</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>54.376977932306822</v>
+      </c>
+      <c r="K38" s="4">
+        <v>54.376977932306822</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C39" s="4">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F39">
-        <v>2.6219999999999999</v>
-      </c>
-      <c r="G39">
-        <v>39.889138224650537</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>39.889138224650537</v>
-      </c>
-      <c r="K39">
-        <v>39.889138224650537</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="F39" s="4">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="G39" s="4">
+        <v>70.108245228127444</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>70.108245228127444</v>
+      </c>
+      <c r="K39" s="4">
+        <v>70.108245228127444</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C40" s="4">
         <v>7</v>
       </c>
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F40">
-        <v>2.665</v>
-      </c>
-      <c r="G40">
-        <v>15.51163698289931</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>15.51163698289931</v>
-      </c>
-      <c r="K40">
-        <v>15.51163698289931</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="F40" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="G40" s="4">
+        <v>565.05490314340454</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>565.05490314340454</v>
+      </c>
+      <c r="K40" s="4">
+        <v>565.05490314340454</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="4">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F41">
-        <v>3.5950000000000002</v>
-      </c>
-      <c r="G41">
-        <v>37.856219399701978</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>37.856219399701978</v>
-      </c>
-      <c r="K41">
-        <v>37.856219399701978</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
+      <c r="F41" s="4">
+        <v>2.9129999999999998</v>
+      </c>
+      <c r="G41" s="4">
+        <v>36.350741502873767</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>36.350741502873767</v>
+      </c>
+      <c r="K41" s="4">
+        <v>36.350741502873767</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="4">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F42">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="G42">
-        <v>17.696879656567091</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>17.696879656567091</v>
-      </c>
-      <c r="K42">
-        <v>17.696879656567091</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="F42" s="4">
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="G42" s="4">
+        <v>62.730761725679422</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>62.730761725679422</v>
+      </c>
+      <c r="K42" s="4">
+        <v>62.730761725679422</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="4">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F43">
-        <v>7.6109999999999998</v>
-      </c>
-      <c r="G43">
-        <v>157.1547044632087</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>157.1547044632087</v>
-      </c>
-      <c r="K43">
-        <v>157.1547044632087</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="F43" s="4">
+        <v>6.8319999999999999</v>
+      </c>
+      <c r="G43" s="4">
+        <v>176.76293195203289</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>176.76293195203289</v>
+      </c>
+      <c r="K43" s="4">
+        <v>176.76293195203289</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C44" s="4">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F44">
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="G44">
-        <v>32.572846448591513</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>32.572846448591513</v>
-      </c>
-      <c r="K44">
-        <v>32.572846448591513</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="F44" s="4">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45.673286383310867</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>45.673286383310867</v>
+      </c>
+      <c r="K44" s="4">
+        <v>45.673286383310867</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C45" s="4">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F45">
-        <v>1.105</v>
-      </c>
-      <c r="G45">
-        <v>37.708401333995603</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>37.708401333995603</v>
-      </c>
-      <c r="K45">
-        <v>37.708401333995603</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
+      <c r="F45" s="4">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="G45" s="4">
+        <v>39.889138224650537</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>39.889138224650537</v>
+      </c>
+      <c r="K45" s="4">
+        <v>39.889138224650537</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="4">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F46">
-        <v>2.11</v>
-      </c>
-      <c r="G46">
-        <v>14.60007627900376</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>14.60007627900376</v>
-      </c>
-      <c r="K46">
-        <v>14.60007627900376</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
+      <c r="F46" s="4">
+        <v>2.665</v>
+      </c>
+      <c r="G46" s="4">
+        <v>15.51163698289931</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>15.51163698289931</v>
+      </c>
+      <c r="K46" s="4">
+        <v>15.51163698289931</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="4">
-        <v>4</v>
-      </c>
-      <c r="D47" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>45.13</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>45.13</v>
-      </c>
-      <c r="L47">
-        <v>45.13</v>
-      </c>
-      <c r="M47">
+        <v>7</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="4">
+        <v>3.5950000000000002</v>
+      </c>
+      <c r="G47" s="4">
+        <v>37.856219399701978</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>37.856219399701978</v>
+      </c>
+      <c r="K47" s="4">
+        <v>37.856219399701978</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48">
-        <v>12</v>
-      </c>
-      <c r="G48">
-        <v>131.38</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>131.38</v>
-      </c>
-      <c r="L48">
-        <v>131.38</v>
-      </c>
-      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="G48" s="4">
+        <v>17.696879656567091</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4">
+        <v>17.696879656567091</v>
+      </c>
+      <c r="K48" s="4">
+        <v>17.696879656567091</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>134</v>
+        <v>41</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C49" s="4">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49">
-        <v>11</v>
-      </c>
-      <c r="G49">
-        <v>347.64</v>
-      </c>
-      <c r="H49">
-        <v>0.17</v>
-      </c>
-      <c r="I49">
-        <v>0.54</v>
-      </c>
-      <c r="J49">
-        <v>59.098799999999997</v>
-      </c>
-      <c r="K49">
-        <v>187.72559999999999</v>
-      </c>
-      <c r="L49">
-        <v>128.6268</v>
-      </c>
-      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="4">
+        <v>7.6109999999999998</v>
+      </c>
+      <c r="G49" s="4">
+        <v>157.1547044632087</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>157.1547044632087</v>
+      </c>
+      <c r="K49" s="4">
+        <v>157.1547044632087</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>135</v>
+        <v>42</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C50" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50">
-        <v>0.24</v>
-      </c>
-      <c r="G50">
-        <v>335.53</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
+        <v>7</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="G50" s="4">
+        <v>32.572846448591513</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>32.572846448591513</v>
+      </c>
+      <c r="K50" s="4">
+        <v>32.572846448591513</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>135</v>
+        <v>43</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C51" s="4">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51">
-        <v>0.05</v>
-      </c>
-      <c r="G51">
-        <v>69.489999999999995</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1.105</v>
+      </c>
+      <c r="G51" s="4">
+        <v>37.708401333995603</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>37.708401333995603</v>
+      </c>
+      <c r="K51" s="4">
+        <v>37.708401333995603</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>135</v>
+        <v>44</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C52" s="4">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52">
-        <v>0.04</v>
-      </c>
-      <c r="G52">
-        <v>39.06</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="G52" s="4">
+        <v>14.60007627900376</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4">
+        <v>14.60007627900376</v>
+      </c>
+      <c r="K52" s="4">
+        <v>14.60007627900376</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="4">
         <v>11</v>
       </c>
-      <c r="D53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F53">
-        <v>0.04</v>
-      </c>
-      <c r="G53">
-        <v>39.06</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
+      <c r="F53" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="G53" s="4">
+        <v>335.53</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C54" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F54">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="G54">
-        <v>50.48</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
+      <c r="F54" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G54" s="4">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C55" s="4">
         <v>11</v>
       </c>
-      <c r="D55" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F55">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="G55">
-        <v>84.63</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F55" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G55" s="4">
+        <v>39.06</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C56" s="4">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F56">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G56">
-        <v>83.54</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
+      <c r="F56" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G56" s="4">
+        <v>39.06</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C57" s="4">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F57">
-        <v>0.85</v>
-      </c>
-      <c r="G57">
-        <v>10.64</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F57" s="4">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G57" s="4">
+        <v>50.48</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C58" s="4">
         <v>11</v>
       </c>
-      <c r="D58" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F58">
-        <v>3.85</v>
-      </c>
-      <c r="G58">
-        <v>47.95</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F58" s="4">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="G58" s="4">
+        <v>84.63</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="4">
         <v>11</v>
       </c>
-      <c r="D59" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F59">
-        <v>0.03</v>
-      </c>
-      <c r="G59">
-        <v>246.39</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>246.39</v>
-      </c>
-      <c r="L59">
-        <v>246.39</v>
-      </c>
-      <c r="M59">
+      <c r="F59" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G59" s="4">
+        <v>83.54</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="4">
         <v>11</v>
       </c>
-      <c r="D60" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F60">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G60">
-        <v>152.31</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>152.31</v>
-      </c>
-      <c r="L60">
-        <v>152.31</v>
-      </c>
-      <c r="M60">
+      <c r="F60" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="G60" s="4">
+        <v>10.64</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C61" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F61">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G61">
-        <v>138.18</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>138.18</v>
-      </c>
-      <c r="L61">
-        <v>138.18</v>
-      </c>
-      <c r="M61">
+      <c r="F61" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="G61" s="4">
+        <v>47.95</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M61">
+    <sortCondition descending="1" ref="L2:L61"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9700,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H7" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
@@ -9713,241 +9795,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
         <v>354.62</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <v>128.76</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <v>36.54</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>142.04</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="13">
         <f>SUM(A1:D1)</f>
         <v>661.95999999999992</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>44.79</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
         <v>64.06</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
         <f t="shared" ref="E2:E13" si="0">SUM(A2:D2)</f>
         <v>108.85</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2510.4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1837.29</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1242.58</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>1338.55</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <f t="shared" si="0"/>
         <v>6928.8200000000006</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1285.4100000000001</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>110.64</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>602.24</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>545.27</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <f t="shared" si="0"/>
         <v>2543.5600000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>400.66</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>148.55000000000001</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>898.45</v>
       </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>1447.66</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
         <v>548.66</v>
       </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>548.66</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
         <v>202.83</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>482.94</v>
       </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
         <v>685.77</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>1408.52</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>490.86</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
         <v>851.42</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>2750.8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>120.56</v>
       </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
         <v>6.95</v>
       </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>127.51</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="A10" s="7">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>187.73</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>62.53</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>90.45</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>187.73</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>528.43999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="A12" s="7">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>6312.68</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>2981.46</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>3972.87</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>3065</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>16332.009999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <f>SUM(A13:D13)</f>
         <v>16332.009999999998</v>
       </c>
